--- a/excel_files/pan_binary_heatmap.xlsx
+++ b/excel_files/pan_binary_heatmap.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgalambos/Documents/GitHub/meta-omics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgalambos/Documents/GitHub/meta-omics/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
     <sheet name="descriptions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:BS100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22770,7 +22770,7 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D100"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
